--- a/FR IMDB.xlsx
+++ b/FR IMDB.xlsx
@@ -1,13 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="FR" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Ρόλους" sheetId="2" r:id="rId5"/>
+    <sheet name="FR" sheetId="1" r:id="rId1"/>
+    <sheet name="Ρόλους" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -77,9 +85,6 @@
     <t>Το σύστημα δίνει την  δυνατότητα ανάκτησης του κωδικού πρόσβασης  με την αποστολή email ή sms στην  διεύθυνση ηλεκτρονικού ταχυδρομείου ή κινητού τηλεφώνου  αντίστοιχα, πού βρίσκονται ήδη αποθηκευμένα στα στοιχεία του λογαριασμού του.</t>
   </si>
   <si>
-    <t>∞</t>
-  </si>
-  <si>
     <t>WANT</t>
   </si>
   <si>
@@ -156,23 +161,28 @@
   </si>
   <si>
     <t>Backend development database management</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
@@ -182,7 +192,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -222,105 +232,108 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="27">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -510,29 +523,34 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A2:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.14"/>
-    <col customWidth="1" min="2" max="2" width="25.86"/>
-    <col customWidth="1" min="3" max="3" width="57.0"/>
-    <col customWidth="1" min="4" max="4" width="17.0"/>
-    <col customWidth="1" min="6" max="6" width="16.29"/>
-    <col customWidth="1" min="7" max="7" width="17.57"/>
-    <col customWidth="1" min="9" max="9" width="19.14"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="3" max="3" width="57" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -567,7 +585,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -578,10 +596,10 @@
         <v>13</v>
       </c>
       <c r="D3" s="5">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E3" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -592,7 +610,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11">
       <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
@@ -603,10 +621,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="5">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E4" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -617,7 +635,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
@@ -628,10 +646,10 @@
         <v>18</v>
       </c>
       <c r="D5" s="5">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E5" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
@@ -642,7 +660,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11">
       <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
@@ -653,10 +671,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="11">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
@@ -664,24 +682,24 @@
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="12" t="s">
+      <c r="B7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="C7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" s="12">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E7" s="12">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
@@ -692,21 +710,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:11">
       <c r="A8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>27</v>
-      </c>
       <c r="D8" s="12">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E8" s="12">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
@@ -717,21 +735,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11">
       <c r="A9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>29</v>
-      </c>
       <c r="D9" s="12">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E9" s="12">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
@@ -739,24 +757,24 @@
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="C10" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>32</v>
-      </c>
       <c r="D10" s="17">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="E10" s="17">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
@@ -767,21 +785,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:11">
       <c r="A11" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>34</v>
-      </c>
       <c r="D11" s="17">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E11" s="17">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
@@ -792,21 +810,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:11">
       <c r="A12" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>36</v>
-      </c>
       <c r="D12" s="17">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
@@ -814,24 +832,24 @@
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
       <c r="K12" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="C13" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="21" t="s">
-        <v>39</v>
-      </c>
       <c r="D13" s="20">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E13" s="20">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
@@ -842,21 +860,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:11">
       <c r="A14" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>41</v>
-      </c>
       <c r="D14" s="20">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E14" s="20">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
@@ -867,21 +885,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:11">
       <c r="A15" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>43</v>
-      </c>
       <c r="D15" s="20">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E15" s="20">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F15" s="23"/>
       <c r="G15" s="23"/>
@@ -892,75 +910,76 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="2:4">
       <c r="B23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="24"/>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="24"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="25" t="s">
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25">
-      <c r="B25" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="25" t="s">
+    <row r="26" spans="2:4">
+      <c r="B26" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="25" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26">
-      <c r="B26" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>47</v>
-      </c>
-    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="2:2">
       <c r="B1" s="26" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="2:2">
       <c r="B2" s="26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
       <c r="B3" s="26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
       <c r="B4" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/FR IMDB.xlsx
+++ b/FR IMDB.xlsx
@@ -1,26 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
-  </bookViews>
   <sheets>
-    <sheet name="FR" sheetId="1" r:id="rId1"/>
-    <sheet name="Ρόλους" sheetId="2" r:id="rId2"/>
+    <sheet state="visible" name="FR" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Ρόλους" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="52">
   <si>
     <t>ΚΩΔΙΚΟΣ</t>
   </si>
@@ -61,7 +53,13 @@
     <t>WP1</t>
   </si>
   <si>
-    <t>Ο χρήστης έχει την επιλογή να συνδεθεί στον προσωπικό του λογαριασμό δίνοντας το username και το password ,πατώντας το κουμπί σύνδεση</t>
+    <t>Ο χρήστης έχει την επιλογή να συνδεθεί στον προσωπικό του λογαριασμό δίνοντας το username και το password ,πατώντας το κουμπί "Sign In"</t>
+  </si>
+  <si>
+    <t>Στάθης</t>
+  </si>
+  <si>
+    <t>Χρήστος</t>
   </si>
   <si>
     <t>MUST</t>
@@ -85,6 +83,9 @@
     <t>Το σύστημα δίνει την  δυνατότητα ανάκτησης του κωδικού πρόσβασης  με την αποστολή email ή sms στην  διεύθυνση ηλεκτρονικού ταχυδρομείου ή κινητού τηλεφώνου  αντίστοιχα, πού βρίσκονται ήδη αποθηκευμένα στα στοιχεία του λογαριασμού του.</t>
   </si>
   <si>
+    <t>?</t>
+  </si>
+  <si>
     <t>WANT</t>
   </si>
   <si>
@@ -163,26 +164,28 @@
     <t>Backend development database management</t>
   </si>
   <si>
-    <t>?</t>
+    <t>Project Manager</t>
+  </si>
+  <si>
+    <t>Δημήτρης</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="4">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
@@ -192,7 +195,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -232,108 +235,118 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+  <cellXfs count="32">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -523,34 +536,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
-    <col min="3" max="3" width="57" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="16.14"/>
+    <col customWidth="1" min="2" max="2" width="25.86"/>
+    <col customWidth="1" min="3" max="3" width="57.0"/>
+    <col customWidth="1" min="4" max="4" width="17.0"/>
+    <col customWidth="1" min="6" max="6" width="16.29"/>
+    <col customWidth="1" min="7" max="7" width="17.57"/>
+    <col customWidth="1" min="9" max="9" width="19.14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11">
+    <row r="2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -585,7 +593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -596,390 +604,430 @@
         <v>13</v>
       </c>
       <c r="D3" s="5">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="E3" s="5">
-        <v>2</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+        <v>2.0</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
       <c r="K3" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="5">
-        <v>10</v>
-      </c>
-      <c r="E4" s="5">
-        <v>4</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+    </row>
+    <row r="5">
       <c r="A5" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>18</v>
+      <c r="C5" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="D5" s="5">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="E5" s="5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
+        <v>1.0</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
       <c r="K5" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="11">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
+      <c r="C6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
       <c r="K6" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="14">
+        <v>8.0</v>
+      </c>
+      <c r="E7" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="14">
+        <v>7.0</v>
+      </c>
+      <c r="E8" s="14">
+        <v>2.0</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="14">
+        <v>2.0</v>
+      </c>
+      <c r="E9" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="20">
+        <v>9.0</v>
+      </c>
+      <c r="E10" s="20">
+        <v>4.0</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="20">
+        <v>5.0</v>
+      </c>
+      <c r="E11" s="20">
+        <v>5.0</v>
+      </c>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="20">
+        <v>2.0</v>
+      </c>
+      <c r="E12" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="12">
-        <v>8</v>
-      </c>
-      <c r="E7" s="12">
-        <v>3</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="12">
-        <v>7</v>
-      </c>
-      <c r="E8" s="12">
-        <v>2</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="12">
-        <v>2</v>
-      </c>
-      <c r="E9" s="12">
-        <v>3</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="17">
-        <v>9</v>
-      </c>
-      <c r="E10" s="17">
-        <v>4</v>
-      </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="17">
-        <v>5</v>
-      </c>
-      <c r="E11" s="17">
-        <v>5</v>
-      </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="17">
-        <v>2</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="20">
-        <v>8</v>
-      </c>
-      <c r="E13" s="20">
-        <v>1</v>
-      </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="20" t="s">
+    </row>
+    <row r="13">
+      <c r="A13" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="21" t="s">
+      <c r="B13" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="20">
-        <v>6</v>
-      </c>
-      <c r="E14" s="20">
-        <v>2</v>
-      </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="20" t="s">
+      <c r="C13" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="21" t="s">
+      <c r="D13" s="24">
+        <v>8.0</v>
+      </c>
+      <c r="E13" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="20">
-        <v>8</v>
-      </c>
-      <c r="E15" s="20">
-        <v>3</v>
-      </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
+      <c r="B14" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="24">
+        <v>6.0</v>
+      </c>
+      <c r="E14" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="24">
+        <v>8.0</v>
+      </c>
+      <c r="E15" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="B23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="24"/>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="25" t="s">
         <v>46</v>
       </c>
+      <c r="D23" s="28"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="16.57"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:2">
-      <c r="B1" s="26" t="s">
+    <row r="1">
+      <c r="B1" s="30" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="2:2">
-      <c r="B2" s="26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2">
-      <c r="B3" s="26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="26" t="s">
-        <v>37</v>
+      <c r="C1" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="31"/>
+    </row>
+    <row r="3">
+      <c r="B3" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="31"/>
+    </row>
+    <row r="5">
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+    </row>
+    <row r="6">
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+    </row>
+    <row r="7">
+      <c r="B7" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>